--- a/documents/example_docs_uni/Направления.xlsx
+++ b/documents/example_docs_uni/Направления.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterinaslapnikova/Desktop/myCockroches/выпускная квалификационная работа/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterinaslapnikova/Desktop/myCockroches/выпускная квалификационная работа/project/graduate-work/documents/example_docs_uni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F03BD00-7D6D-2548-9EFE-4A4EEA291A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD2FF44-3C48-F044-AADF-2E84F26914B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="9960" windowWidth="28800" windowHeight="15980" xr2:uid="{FBBDF933-0F1E-AC40-80DD-8DB0C1995A3B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{FBBDF933-0F1E-AC40-80DD-8DB0C1995A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
-  <si>
-    <t>курс</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>наименование</t>
   </si>
@@ -411,71 +408,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E4EB94-B1C0-BE47-A9AD-9B963093183B}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
-        <v>30</v>
+      <c r="C3">
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
+      <c r="C4">
         <v>33</v>
       </c>
     </row>

--- a/documents/example_docs_uni/Направления.xlsx
+++ b/documents/example_docs_uni/Направления.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterinaslapnikova/Desktop/myCockroches/выпускная квалификационная работа/project/graduate-work/documents/example_docs_uni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD2FF44-3C48-F044-AADF-2E84F26914B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0C9F25-5B7C-F241-820B-3553EE4B9791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{FBBDF933-0F1E-AC40-80DD-8DB0C1995A3B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{FBBDF933-0F1E-AC40-80DD-8DB0C1995A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -411,7 +411,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/documents/example_docs_uni/Направления.xlsx
+++ b/documents/example_docs_uni/Направления.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterinaslapnikova/Desktop/myCockroches/выпускная квалификационная работа/project/graduate-work/documents/example_docs_uni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0C9F25-5B7C-F241-820B-3553EE4B9791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44475679-187B-A54E-A112-0AD3C17D5FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{FBBDF933-0F1E-AC40-80DD-8DB0C1995A3B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{FBBDF933-0F1E-AC40-80DD-8DB0C1995A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>наименование</t>
   </si>
@@ -56,6 +56,48 @@
   </si>
   <si>
     <t>номер группы/инициалы</t>
+  </si>
+  <si>
+    <t>БИ</t>
+  </si>
+  <si>
+    <t>ПМ</t>
+  </si>
+  <si>
+    <t>ПИ</t>
+  </si>
+  <si>
+    <t>ФИИТ</t>
+  </si>
+  <si>
+    <t>ИБ</t>
+  </si>
+  <si>
+    <t>ПМИ</t>
+  </si>
+  <si>
+    <t>ИСТ</t>
+  </si>
+  <si>
+    <t>бизнес-информатика</t>
+  </si>
+  <si>
+    <t>прикладная математика</t>
+  </si>
+  <si>
+    <t>прикладная информатика</t>
+  </si>
+  <si>
+    <t>фундаметнальная информатика и информационные технологии</t>
+  </si>
+  <si>
+    <t>информационная безопасность</t>
+  </si>
+  <si>
+    <t>прикладная математика и информатика</t>
+  </si>
+  <si>
+    <t>информационные системы и технологии</t>
   </si>
 </sst>
 </file>
@@ -408,19 +450,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E4EB94-B1C0-BE47-A9AD-9B963093183B}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="56.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,7 +474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -441,8 +484,14 @@
       <c r="C2">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -452,8 +501,14 @@
       <c r="C3">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -462,6 +517,44 @@
       </c>
       <c r="C4">
         <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
